--- a/Plugins/DNN/Aspose.DNN.DynamicFormBuilderExcel/Docs/AsposeDynamicFormsDataFile.xlsx
+++ b/Plugins/DNN/Aspose.DNN.DynamicFormBuilderExcel/Docs/AsposeDynamicFormsDataFile.xlsx
@@ -123,7 +123,7 @@
     <t>Radio Options</t>
   </si>
   <si>
-    <t>Aspose Dynamic Form Builder using Aspose.Cells</t>
+    <t>Aspose.Cells Forms for DNN</t>
   </si>
 </sst>
 </file>
